--- a/ProjectAnalysis/AssembleBOMs.xlsx
+++ b/ProjectAnalysis/AssembleBOMs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7590" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EBOM" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,1055 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="347">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ORDER_ID</t>
+  </si>
+  <si>
+    <t>BOM_SET_ID</t>
+  </si>
+  <si>
+    <t>BOM_SET_VERSION</t>
+  </si>
+  <si>
+    <t>MAT_ID</t>
+  </si>
+  <si>
+    <t>MAT_VER</t>
+  </si>
+  <si>
+    <t>MAT_DESC</t>
+  </si>
+  <si>
+    <t>ALT_MAT_FLAG</t>
+  </si>
+  <si>
+    <t>PART_GRP</t>
+  </si>
+  <si>
+    <t>MAT_QTY</t>
+  </si>
+  <si>
+    <t>SERIAL_INPUT_FLAG</t>
+  </si>
+  <si>
+    <t>SERIAL_TYPE</t>
+  </si>
+  <si>
+    <t>OPER</t>
+  </si>
+  <si>
+    <t>FLOW</t>
+  </si>
+  <si>
+    <t>FLOW_SEQ_NUM</t>
+  </si>
+  <si>
+    <t>SEQ_NUM</t>
+  </si>
+  <si>
+    <t>MATERIAL_KEY_NUM</t>
+  </si>
+  <si>
+    <t>2251</t>
+  </si>
+  <si>
+    <t>1101169569</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>TEA054000002</t>
+  </si>
+  <si>
+    <t>铜排W</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>OP030</t>
+  </si>
+  <si>
+    <t>110116956900</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2252</t>
+  </si>
+  <si>
+    <t>TEA054000021</t>
+  </si>
+  <si>
+    <t>正相铜排1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2253</t>
+  </si>
+  <si>
+    <t>W600008771</t>
+  </si>
+  <si>
+    <t>电动汽车DC/DC变换器(VA1500B336D-S15-M401)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>OP010</t>
+  </si>
+  <si>
+    <t>2254</t>
+  </si>
+  <si>
+    <t>TQ0092100012</t>
+  </si>
+  <si>
+    <t>高压警告标识</t>
+  </si>
+  <si>
+    <t>OP050</t>
+  </si>
+  <si>
+    <t>2255</t>
+  </si>
+  <si>
+    <t>W700032513</t>
+  </si>
+  <si>
+    <t>2芯插座组件(YGC662-EV-P2RDCXL3)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2256</t>
+  </si>
+  <si>
+    <t>W200051514</t>
+  </si>
+  <si>
+    <t>水道密封圈(20*1.9/EPDM)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2257</t>
+  </si>
+  <si>
+    <t>TEA054000003</t>
+  </si>
+  <si>
+    <t>铜排V</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2258</t>
+  </si>
+  <si>
+    <t>TEA054000010</t>
+  </si>
+  <si>
+    <t>按装柱1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2259</t>
+  </si>
+  <si>
+    <t>TEA054000200</t>
+  </si>
+  <si>
+    <t>屏蔽版组件</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2260</t>
+  </si>
+  <si>
+    <t>TEA054000008</t>
+  </si>
+  <si>
+    <t>安装支架1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2261</t>
+  </si>
+  <si>
+    <t>TEA054000014</t>
+  </si>
+  <si>
+    <t>小盖板1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2262</t>
+  </si>
+  <si>
+    <t>W200051515</t>
+  </si>
+  <si>
+    <t>水道密封条(水道密封条)</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2263</t>
+  </si>
+  <si>
+    <t>W700032440</t>
+  </si>
+  <si>
+    <t>4芯16A插座线束(CB-01-00-1996)</t>
+  </si>
+  <si>
+    <t>OP040</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2264</t>
+  </si>
+  <si>
+    <t>TEA054000400</t>
+  </si>
+  <si>
+    <t>IGBT组件</t>
+  </si>
+  <si>
+    <t>OP020</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2265</t>
+  </si>
+  <si>
+    <t>W200051523</t>
+  </si>
+  <si>
+    <t>o型密封圈(16*1.8/EPDM)</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2266</t>
+  </si>
+  <si>
+    <t>TEA054000004</t>
+  </si>
+  <si>
+    <t>铜排U</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2267</t>
+  </si>
+  <si>
+    <t>TEA054000018</t>
+  </si>
+  <si>
+    <t>直流线缆固定支架</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2268</t>
+  </si>
+  <si>
+    <t>TEA054000500</t>
+  </si>
+  <si>
+    <t>布置图</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2269</t>
+  </si>
+  <si>
+    <t>W700032517</t>
+  </si>
+  <si>
+    <t>3芯插座组件(YGC662-EV-P3RDDXL1)</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2270</t>
+  </si>
+  <si>
+    <t>TEA054100900</t>
+  </si>
+  <si>
+    <t>控制板</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2271</t>
+  </si>
+  <si>
+    <t>TEA054100400</t>
+  </si>
+  <si>
+    <t>传感器板</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>2272</t>
+  </si>
+  <si>
+    <t>TEA054000015</t>
+  </si>
+  <si>
+    <t>铭牌</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>2273</t>
+  </si>
+  <si>
+    <t>W700033182</t>
+  </si>
+  <si>
+    <t>保险座(tPower-DM11-012)</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2274</t>
+  </si>
+  <si>
+    <t>W200054732</t>
+  </si>
+  <si>
+    <t>小盖板密封圈(3.8*2.1/EPDM/70)</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>2275</t>
+  </si>
+  <si>
+    <t>W800005149</t>
+  </si>
+  <si>
+    <t>防水呼吸器(PUWKK8.5-4.5)</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2276</t>
+  </si>
+  <si>
+    <t>W800013290</t>
+  </si>
+  <si>
+    <t>密封条(60.4*1.5/EPDM-50)</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>2277</t>
+  </si>
+  <si>
+    <t>W200051628</t>
+  </si>
+  <si>
+    <t>底板(tPower-dm11-001)</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2278</t>
+  </si>
+  <si>
+    <t>W200051629</t>
+  </si>
+  <si>
+    <t>上盖板(tPower-DM11-002)</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2279</t>
+  </si>
+  <si>
+    <t>W200051679</t>
+  </si>
+  <si>
+    <t>接线盒(tPower-DM11-003)</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2280</t>
+  </si>
+  <si>
+    <t>W200052219</t>
+  </si>
+  <si>
+    <t>熔断器(ev2743)</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2281</t>
+  </si>
+  <si>
+    <t>W200052220</t>
+  </si>
+  <si>
+    <t>熔断器(EV 2742)</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2282</t>
+  </si>
+  <si>
+    <t>W500006745</t>
+  </si>
+  <si>
+    <t>电容器(C36-450Vdc-400uF)</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2283</t>
+  </si>
+  <si>
+    <t>W200054762</t>
+  </si>
+  <si>
+    <t>铸铝水管(tPower-DM11-008)</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>2284</t>
+  </si>
+  <si>
+    <t>TEA054000027</t>
+  </si>
+  <si>
+    <t>正相铜排2</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2285</t>
+  </si>
+  <si>
+    <t>TEA054000026</t>
+  </si>
+  <si>
+    <t>负相铜排1</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>2286</t>
+  </si>
+  <si>
+    <t>W200054733</t>
+  </si>
+  <si>
+    <t>接线盒密封圈(3.8*2.1/EPDM/70)</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>2287</t>
+  </si>
+  <si>
+    <t>W200054734</t>
+  </si>
+  <si>
+    <t>底板密封圈(3.8*2.1/EPDM/70)</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>2288</t>
+  </si>
+  <si>
+    <t>TEA054000028</t>
+  </si>
+  <si>
+    <t>负相铜排2</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>2289</t>
+  </si>
+  <si>
+    <t>W600009101</t>
+  </si>
+  <si>
+    <t>IGBT密封圈(YP115*75*2.5 /EPDM)</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>2290</t>
+  </si>
+  <si>
+    <t>W200054763</t>
+  </si>
+  <si>
+    <t>铸铝水管(tPower-DM11-007)</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>2291</t>
+  </si>
+  <si>
+    <t>TEA054000031</t>
+  </si>
+  <si>
+    <t>M401紧固件包</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>2292</t>
+  </si>
+  <si>
+    <t>W300015381</t>
+  </si>
+  <si>
+    <t>内六角花形盘头螺钉(QCT855\\M6x16\8.8\镀锌镍\72H)</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>2293</t>
+  </si>
+  <si>
+    <t>W300006102</t>
+  </si>
+  <si>
+    <t>十字槽盘头自攻螺钉(GB845-85\\ST3.9*13\不锈钢A2-70)</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>2294</t>
+  </si>
+  <si>
+    <t>W300015378</t>
+  </si>
+  <si>
+    <t>内六角花形盘头(QCT855\\M3x6\8.8\镀锌镍\72H)</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>2295</t>
+  </si>
+  <si>
+    <t>W300015380</t>
+  </si>
+  <si>
+    <t>内六角花形盘头螺钉(QCT855\\M4x12\8.8\镀锌镍\72H)</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>2296</t>
+  </si>
+  <si>
+    <t>W300015379</t>
+  </si>
+  <si>
+    <t>内六角花形盘头螺钉(QCT855\\M6x12\8.8\镀锌镍\72H)</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>2297</t>
+  </si>
+  <si>
+    <t>W300015377</t>
+  </si>
+  <si>
+    <t>内六角花形盘头(QCT855\\M8x10\8.8\镀锌镍\72H)</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>2298</t>
+  </si>
+  <si>
+    <t>W300015382</t>
+  </si>
+  <si>
+    <t>内六角花形盘头螺钉(QCT855\\M5x16\8.8\镀锌镍\72H)</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2299</t>
+  </si>
+  <si>
+    <t>TEA054000033</t>
+  </si>
+  <si>
+    <t>辅料包</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>ZT3-020</t>
+  </si>
+  <si>
+    <t>元宝线托</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>W25972100010</t>
+  </si>
+  <si>
+    <t>线托(HC-0L)</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>W84300000100</t>
+  </si>
+  <si>
+    <t>电缆扎带(100MM)</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>1101178958</t>
+  </si>
+  <si>
+    <t>110117895800</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>2313</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>2314</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>2315</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>2316</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>2317</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>2318</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>2319</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>2320</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>2321</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>2322</t>
+  </si>
+  <si>
+    <t>W600008879</t>
+  </si>
+  <si>
+    <t>电动汽车DC/DC变换器(VA1500B336D-S15-R101)</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>2323</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>2324</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>2325</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>2326</t>
+  </si>
+  <si>
+    <t>TEA054000016</t>
+  </si>
+  <si>
+    <t>低压电缆支架</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>2327</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>2328</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>2329</t>
+  </si>
+  <si>
+    <t>TEA054000023</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>2330</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>2331</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>2332</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>2333</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>2334</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>2335</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>2336</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>2337</t>
+  </si>
+  <si>
+    <t>2338</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>2339</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>2340</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>2341</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>2342</t>
+  </si>
+  <si>
+    <t>TEA054000032</t>
+  </si>
+  <si>
+    <t>R101紧固件包</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>2343</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>2344</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>2345</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>2346</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>2347</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>2348</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>2349</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>2350</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>2351</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>2352</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>2353</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,6 +1088,11 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,18 +1112,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -386,7 +1440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -410,12 +1464,5007 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProjectAnalysis/AssembleBOMs.xlsx
+++ b/ProjectAnalysis/AssembleBOMs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7590" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7590" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EBOM" sheetId="1" r:id="rId1"/>
     <sheet name="PBOM" sheetId="2" r:id="rId2"/>
     <sheet name="MBOM" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="401">
   <si>
     <t>ID</t>
   </si>
@@ -1067,6 +1068,222 @@
   </si>
   <si>
     <t>102</t>
+  </si>
+  <si>
+    <t>主计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号：ZJH001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单产品：发电机FDJ002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单数量：100台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交货时间：2018/01/01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDJ002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上盖板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下盖板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定子一厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转子一厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钣金一厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钣金二厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定子一厂计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产计划号：ZJH001-DZ100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划产品：定子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划数量：100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交货时间：2017/09/01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP01:定子和转子装配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP02:装配外壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP03:装配上盖板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP04:装配下盖板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP05:测试和下线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总装厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP01:数控加工A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP03:安装三个C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP04:安装五个E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DJ1-CJ01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DJ1-CJ02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DJ1-CJ02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP02:将两个B安装到A上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP05:生产并安装D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1118,11 +1335,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1466,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1545,7 +1771,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -1557,13 +1783,13 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
@@ -1572,10 +1798,14 @@
       <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>24</v>
@@ -1584,7 +1814,7 @@
         <v>25</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>26</v>
@@ -1592,7 +1822,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -1604,25 +1834,25 @@
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>24</v>
@@ -1631,7 +1861,7 @@
         <v>25</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>26</v>
@@ -1639,7 +1869,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
@@ -1651,13 +1881,13 @@
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
@@ -1666,12 +1896,8 @@
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1682,7 +1908,7 @@
         <v>25</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>26</v>
@@ -1690,7 +1916,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
@@ -1702,13 +1928,13 @@
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
@@ -1720,7 +1946,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>24</v>
@@ -1729,15 +1955,15 @@
         <v>25</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
@@ -1749,13 +1975,13 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
@@ -1764,10 +1990,14 @@
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M6" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>24</v>
@@ -1776,7 +2006,7 @@
         <v>25</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>26</v>
@@ -1784,7 +2014,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
@@ -1796,20 +2026,20 @@
         <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1823,7 +2053,7 @@
         <v>25</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>26</v>
@@ -1831,7 +2061,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
@@ -1843,13 +2073,13 @@
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
@@ -1858,10 +2088,14 @@
       <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M8" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>24</v>
@@ -1870,7 +2104,7 @@
         <v>25</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>26</v>
@@ -1878,7 +2112,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>180</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
@@ -1890,13 +2124,13 @@
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
@@ -1908,7 +2142,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>24</v>
@@ -1917,7 +2151,7 @@
         <v>25</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>26</v>
@@ -1925,7 +2159,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
@@ -1937,13 +2171,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
@@ -1955,7 +2189,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>24</v>
@@ -1964,7 +2198,7 @@
         <v>25</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>26</v>
@@ -1972,7 +2206,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
@@ -1984,20 +2218,20 @@
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -2011,7 +2245,7 @@
         <v>25</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>26</v>
@@ -2019,7 +2253,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
@@ -2031,29 +2265,25 @@
         <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>24</v>
@@ -2062,40 +2292,40 @@
         <v>25</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>69</v>
+        <v>220</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -2103,13 +2333,13 @@
         <v>36</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>73</v>
+        <v>259</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>26</v>
@@ -2117,25 +2347,25 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
@@ -2147,42 +2377,42 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>81</v>
+        <v>279</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
@@ -2198,63 +2428,67 @@
         <v>35</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>83</v>
+        <v>280</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>283</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M16" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>87</v>
+        <v>284</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>26</v>
@@ -2262,25 +2496,25 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>293</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
@@ -2289,19 +2523,23 @@
       <c r="J17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M17" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>91</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>26</v>
@@ -2309,25 +2547,25 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>304</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
@@ -2339,42 +2577,42 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>95</v>
+        <v>305</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>317</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
@@ -2383,49 +2621,45 @@
       <c r="J19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>99</v>
+        <v>318</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>321</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>101</v>
+        <v>322</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>102</v>
+        <v>323</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
@@ -2437,16 +2671,16 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>103</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>26</v>
@@ -2454,50 +2688,46 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>104</v>
+        <v>329</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>107</v>
+        <v>330</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>26</v>
@@ -2505,50 +2735,46 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>337</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>111</v>
+        <v>338</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>26</v>
@@ -2556,7 +2782,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>18</v>
@@ -2568,13 +2794,13 @@
         <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
@@ -2583,10 +2809,14 @@
       <c r="J23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M23" s="1" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>24</v>
@@ -2595,15 +2825,15 @@
         <v>25</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>18</v>
@@ -2615,25 +2845,25 @@
         <v>19</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>24</v>
@@ -2642,33 +2872,33 @@
         <v>25</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>271</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
@@ -2677,74 +2907,78 @@
       <c r="J25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M25" s="1" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>123</v>
+        <v>272</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>124</v>
+        <v>327</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>127</v>
+        <v>328</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>18</v>
@@ -2756,13 +2990,13 @@
         <v>19</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
@@ -2774,7 +3008,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>24</v>
@@ -2783,7 +3017,7 @@
         <v>25</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>26</v>
@@ -2791,7 +3025,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>18</v>
@@ -2803,13 +3037,13 @@
         <v>19</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
@@ -2818,14 +3052,10 @@
       <c r="J28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
       <c r="M28" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>24</v>
@@ -2834,7 +3064,7 @@
         <v>25</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>26</v>
@@ -2842,7 +3072,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>18</v>
@@ -2854,13 +3084,13 @@
         <v>19</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
@@ -2869,14 +3099,10 @@
       <c r="J29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>24</v>
@@ -2885,15 +3111,15 @@
         <v>25</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>18</v>
@@ -2905,13 +3131,13 @@
         <v>19</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
@@ -2920,12 +3146,8 @@
       <c r="J30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
         <v>23</v>
       </c>
@@ -2936,7 +3158,7 @@
         <v>25</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>26</v>
@@ -2944,7 +3166,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>18</v>
@@ -2956,13 +3178,13 @@
         <v>19</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
@@ -2974,7 +3196,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>24</v>
@@ -2983,15 +3205,15 @@
         <v>25</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>18</v>
@@ -3003,25 +3225,25 @@
         <v>19</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>24</v>
@@ -3030,15 +3252,15 @@
         <v>25</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>18</v>
@@ -3050,27 +3272,23 @@
         <v>19</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
       <c r="M33" s="1" t="s">
         <v>23</v>
       </c>
@@ -3081,7 +3299,7 @@
         <v>25</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>26</v>
@@ -3089,7 +3307,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>18</v>
@@ -3101,13 +3319,13 @@
         <v>19</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
@@ -3128,7 +3346,7 @@
         <v>25</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>26</v>
@@ -3136,7 +3354,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>18</v>
@@ -3148,13 +3366,13 @@
         <v>19</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
@@ -3175,7 +3393,7 @@
         <v>25</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>26</v>
@@ -3183,7 +3401,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>18</v>
@@ -3195,13 +3413,13 @@
         <v>19</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
@@ -3210,8 +3428,12 @@
       <c r="J36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M36" s="1" t="s">
         <v>23</v>
       </c>
@@ -3222,7 +3444,7 @@
         <v>25</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>26</v>
@@ -3230,7 +3452,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>18</v>
@@ -3242,13 +3464,13 @@
         <v>19</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
@@ -3269,7 +3491,7 @@
         <v>25</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>26</v>
@@ -3277,7 +3499,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>18</v>
@@ -3289,13 +3511,13 @@
         <v>19</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
@@ -3304,10 +3526,14 @@
       <c r="J38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
+      <c r="K38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M38" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>24</v>
@@ -3316,15 +3542,15 @@
         <v>25</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>18</v>
@@ -3336,13 +3562,13 @@
         <v>19</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
@@ -3351,8 +3577,12 @@
       <c r="J39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M39" s="1" t="s">
         <v>23</v>
       </c>
@@ -3363,7 +3593,7 @@
         <v>25</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>26</v>
@@ -3371,7 +3601,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>18</v>
@@ -3383,13 +3613,13 @@
         <v>19</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
@@ -3401,7 +3631,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>24</v>
@@ -3410,7 +3640,7 @@
         <v>25</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>26</v>
@@ -3418,7 +3648,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>18</v>
@@ -3430,13 +3660,13 @@
         <v>19</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
@@ -3457,7 +3687,7 @@
         <v>25</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>26</v>
@@ -3465,7 +3695,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>18</v>
@@ -3477,13 +3707,13 @@
         <v>19</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
@@ -3495,7 +3725,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>24</v>
@@ -3504,7 +3734,7 @@
         <v>25</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>26</v>
@@ -3512,7 +3742,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>18</v>
@@ -3524,25 +3754,25 @@
         <v>19</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>24</v>
@@ -3551,15 +3781,15 @@
         <v>25</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>18</v>
@@ -3571,25 +3801,25 @@
         <v>19</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>24</v>
@@ -3598,15 +3828,15 @@
         <v>25</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>18</v>
@@ -3618,25 +3848,25 @@
         <v>19</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>24</v>
@@ -3645,7 +3875,7 @@
         <v>25</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>26</v>
@@ -3653,7 +3883,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>18</v>
@@ -3665,25 +3895,25 @@
         <v>19</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>24</v>
@@ -3692,15 +3922,15 @@
         <v>25</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>18</v>
@@ -3712,20 +3942,20 @@
         <v>19</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -3739,7 +3969,7 @@
         <v>25</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>26</v>
@@ -3747,7 +3977,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>18</v>
@@ -3759,25 +3989,25 @@
         <v>19</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>24</v>
@@ -3786,15 +4016,15 @@
         <v>25</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>18</v>
@@ -3806,25 +4036,25 @@
         <v>19</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>24</v>
@@ -3833,7 +4063,7 @@
         <v>25</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>26</v>
@@ -3841,7 +4071,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>18</v>
@@ -3853,20 +4083,20 @@
         <v>19</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -3880,7 +4110,7 @@
         <v>25</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>26</v>
@@ -3888,32 +4118,32 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>227</v>
+        <v>43</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -3921,13 +4151,13 @@
         <v>23</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>26</v>
@@ -3935,32 +4165,32 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>230</v>
+        <v>85</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>231</v>
+        <v>86</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -3968,13 +4198,13 @@
         <v>23</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>26</v>
@@ -3982,32 +4212,32 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -4015,13 +4245,13 @@
         <v>23</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>26</v>
@@ -4029,7 +4259,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>238</v>
@@ -4041,13 +4271,13 @@
         <v>19</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
@@ -4059,7 +4289,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>239</v>
@@ -4068,15 +4298,15 @@
         <v>60</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>238</v>
@@ -4088,13 +4318,13 @@
         <v>19</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
@@ -4115,7 +4345,7 @@
         <v>60</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>26</v>
@@ -4123,7 +4353,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>238</v>
@@ -4135,20 +4365,20 @@
         <v>19</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -4162,7 +4392,7 @@
         <v>60</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>26</v>
@@ -4170,7 +4400,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>238</v>
@@ -4182,13 +4412,13 @@
         <v>19</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
@@ -4200,7 +4430,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>239</v>
@@ -4209,15 +4439,15 @@
         <v>60</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>238</v>
@@ -4229,13 +4459,13 @@
         <v>19</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
@@ -4256,7 +4486,7 @@
         <v>60</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="Q58" s="1" t="s">
         <v>26</v>
@@ -4264,7 +4494,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>238</v>
@@ -4276,13 +4506,13 @@
         <v>19</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1" t="s">
@@ -4303,7 +4533,7 @@
         <v>60</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="Q59" s="1" t="s">
         <v>26</v>
@@ -4311,7 +4541,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>238</v>
@@ -4323,13 +4553,13 @@
         <v>19</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
@@ -4338,10 +4568,14 @@
       <c r="J60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
+      <c r="K60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M60" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>239</v>
@@ -4350,15 +4584,15 @@
         <v>60</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>238</v>
@@ -4370,13 +4604,13 @@
         <v>19</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
@@ -4385,8 +4619,12 @@
       <c r="J61" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
+      <c r="K61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M61" s="1" t="s">
         <v>23</v>
       </c>
@@ -4397,7 +4635,7 @@
         <v>60</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="Q61" s="1" t="s">
         <v>26</v>
@@ -4405,7 +4643,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>238</v>
@@ -4417,13 +4655,13 @@
         <v>19</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1" t="s">
@@ -4432,8 +4670,12 @@
       <c r="J62" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
+      <c r="K62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M62" s="1" t="s">
         <v>23</v>
       </c>
@@ -4444,7 +4686,7 @@
         <v>60</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="Q62" s="1" t="s">
         <v>26</v>
@@ -4452,7 +4694,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>238</v>
@@ -4464,13 +4706,13 @@
         <v>19</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1" t="s">
@@ -4491,7 +4733,7 @@
         <v>60</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="Q63" s="1" t="s">
         <v>26</v>
@@ -4499,7 +4741,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>238</v>
@@ -4511,25 +4753,25 @@
         <v>19</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>239</v>
@@ -4538,7 +4780,7 @@
         <v>60</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="Q64" s="1" t="s">
         <v>26</v>
@@ -4546,7 +4788,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>238</v>
@@ -4558,13 +4800,13 @@
         <v>19</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1" t="s">
@@ -4576,7 +4818,7 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>239</v>
@@ -4585,7 +4827,7 @@
         <v>60</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="Q65" s="1" t="s">
         <v>26</v>
@@ -4593,7 +4835,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>238</v>
@@ -4605,13 +4847,13 @@
         <v>19</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
@@ -4623,7 +4865,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>239</v>
@@ -4632,15 +4874,15 @@
         <v>60</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>238</v>
@@ -4652,13 +4894,13 @@
         <v>19</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1" t="s">
@@ -4679,7 +4921,7 @@
         <v>60</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="Q67" s="1" t="s">
         <v>26</v>
@@ -4687,7 +4929,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>238</v>
@@ -4699,29 +4941,25 @@
         <v>19</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
       <c r="M68" s="1" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>239</v>
@@ -4730,15 +4968,15 @@
         <v>60</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>238</v>
@@ -4750,29 +4988,25 @@
         <v>19</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>66</v>
+        <v>209</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
       <c r="M69" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>239</v>
@@ -4781,15 +5015,15 @@
         <v>60</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>270</v>
+        <v>332</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>238</v>
@@ -4801,13 +5035,13 @@
         <v>19</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1" t="s">
@@ -4816,14 +5050,10 @@
       <c r="J70" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K70" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
       <c r="M70" s="1" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>239</v>
@@ -4832,15 +5062,15 @@
         <v>60</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>273</v>
+        <v>341</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>238</v>
@@ -4852,20 +5082,20 @@
         <v>19</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -4879,7 +5109,7 @@
         <v>60</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>274</v>
+        <v>342</v>
       </c>
       <c r="Q71" s="1" t="s">
         <v>26</v>
@@ -4887,7 +5117,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>275</v>
+        <v>343</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>238</v>
@@ -4899,29 +5129,25 @@
         <v>19</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
       <c r="M72" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>239</v>
@@ -4930,15 +5156,15 @@
         <v>60</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>276</v>
+        <v>344</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>238</v>
@@ -4950,13 +5176,13 @@
         <v>19</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1" t="s">
@@ -4965,14 +5191,10 @@
       <c r="J73" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K73" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
       <c r="M73" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>239</v>
@@ -4981,7 +5203,7 @@
         <v>60</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>280</v>
+        <v>346</v>
       </c>
       <c r="Q73" s="1" t="s">
         <v>26</v>
@@ -4989,25 +5211,25 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>281</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1" t="s">
@@ -5016,49 +5238,45 @@
       <c r="J74" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K74" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
       <c r="M74" s="1" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>283</v>
+        <v>96</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1" t="s">
@@ -5074,140 +5292,136 @@
         <v>35</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>284</v>
+        <v>99</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>285</v>
+        <v>196</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
       <c r="M76" s="1" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>286</v>
+        <v>199</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>287</v>
+        <v>204</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>288</v>
+        <v>205</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>290</v>
+        <v>207</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>291</v>
+        <v>212</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1" t="s">
@@ -5216,31 +5430,27 @@
       <c r="J78" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K78" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
       <c r="M78" s="1" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>238</v>
@@ -5252,13 +5462,13 @@
         <v>19</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1" t="s">
@@ -5267,14 +5477,10 @@
       <c r="J79" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K79" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
       <c r="M79" s="1" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>239</v>
@@ -5283,15 +5489,15 @@
         <v>60</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>238</v>
@@ -5303,13 +5509,13 @@
         <v>19</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>296</v>
+        <v>97</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1" t="s">
@@ -5318,10 +5524,14 @@
       <c r="J80" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
+      <c r="K80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M80" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>239</v>
@@ -5330,15 +5540,15 @@
         <v>60</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>238</v>
@@ -5350,25 +5560,25 @@
         <v>19</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>239</v>
@@ -5377,15 +5587,15 @@
         <v>60</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>238</v>
@@ -5397,25 +5607,25 @@
         <v>19</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>239</v>
@@ -5424,15 +5634,15 @@
         <v>60</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>238</v>
@@ -5444,13 +5654,13 @@
         <v>19</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1" t="s">
@@ -5462,7 +5672,7 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>239</v>
@@ -5471,33 +5681,33 @@
         <v>60</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>304</v>
+        <v>37</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1" t="s">
@@ -5509,42 +5719,42 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>305</v>
+        <v>25</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>306</v>
+        <v>65</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1" t="s">
@@ -5553,19 +5763,23 @@
       <c r="J85" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
+      <c r="K85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="M85" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>307</v>
+        <v>69</v>
       </c>
       <c r="Q85" s="1" t="s">
         <v>30</v>
@@ -5573,25 +5787,25 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>308</v>
+        <v>92</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1" t="s">
@@ -5603,42 +5817,42 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>309</v>
+        <v>95</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>310</v>
+        <v>112</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1" t="s">
@@ -5650,42 +5864,42 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>311</v>
+        <v>115</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1" t="s">
@@ -5697,42 +5911,42 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>313</v>
+        <v>124</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1" t="s">
@@ -5747,13 +5961,13 @@
         <v>40</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>314</v>
+        <v>127</v>
       </c>
       <c r="Q89" s="1" t="s">
         <v>30</v>
@@ -5761,25 +5975,25 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1" t="s">
@@ -5788,45 +6002,49 @@
       <c r="J90" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
+      <c r="K90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M90" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>316</v>
+        <v>139</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>317</v>
+        <v>144</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1" t="s">
@@ -5838,42 +6056,42 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>318</v>
+        <v>147</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>319</v>
+        <v>148</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1" t="s">
@@ -5885,42 +6103,42 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>320</v>
+        <v>151</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>321</v>
+        <v>172</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>322</v>
+        <v>173</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>323</v>
+        <v>174</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1" t="s">
@@ -5932,24 +6150,24 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>324</v>
+        <v>175</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>325</v>
+        <v>237</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>238</v>
@@ -5961,25 +6179,25 @@
         <v>19</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>239</v>
@@ -5988,15 +6206,15 @@
         <v>60</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>326</v>
+        <v>232</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>327</v>
+        <v>244</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>238</v>
@@ -6008,25 +6226,25 @@
         <v>19</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>239</v>
@@ -6035,15 +6253,15 @@
         <v>60</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>329</v>
+        <v>250</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>238</v>
@@ -6055,25 +6273,25 @@
         <v>19</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>239</v>
@@ -6082,15 +6300,15 @@
         <v>60</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>330</v>
+        <v>251</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>238</v>
@@ -6102,25 +6320,29 @@
         <v>19</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>209</v>
+        <v>66</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="M97" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>239</v>
@@ -6129,15 +6351,15 @@
         <v>60</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>332</v>
+        <v>270</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>333</v>
+        <v>275</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>238</v>
@@ -6149,25 +6371,29 @@
         <v>19</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M98" s="1" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>239</v>
@@ -6176,15 +6402,15 @@
         <v>60</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>334</v>
+        <v>276</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>238</v>
@@ -6196,13 +6422,13 @@
         <v>19</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>213</v>
+        <v>288</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>214</v>
+        <v>289</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1" t="s">
@@ -6214,7 +6440,7 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N99" s="1" t="s">
         <v>239</v>
@@ -6223,15 +6449,15 @@
         <v>60</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>238</v>
@@ -6243,25 +6469,25 @@
         <v>19</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>217</v>
+        <v>296</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>311</v>
+        <v>19</v>
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N100" s="1" t="s">
         <v>239</v>
@@ -6270,15 +6496,15 @@
         <v>60</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>238</v>
@@ -6290,13 +6516,13 @@
         <v>19</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
@@ -6308,7 +6534,7 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N101" s="1" t="s">
         <v>239</v>
@@ -6317,15 +6543,15 @@
         <v>60</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>238</v>
@@ -6337,25 +6563,25 @@
         <v>19</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>239</v>
@@ -6364,15 +6590,15 @@
         <v>60</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>238</v>
@@ -6384,25 +6610,25 @@
         <v>19</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>226</v>
+        <v>121</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>227</v>
+        <v>122</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N103" s="1" t="s">
         <v>239</v>
@@ -6411,15 +6637,15 @@
         <v>60</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>238</v>
@@ -6431,13 +6657,13 @@
         <v>19</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1" t="s">
@@ -6449,7 +6675,7 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>239</v>
@@ -6458,14 +6684,382 @@
         <v>60</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:Q104">
+    <sortCondition ref="M1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>372</v>
+      </c>
+      <c r="G9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D10" t="s">
+        <v>362</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I10" t="s">
+        <v>361</v>
+      </c>
+      <c r="J10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>363</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H11" t="s">
+        <v>382</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B12" t="s">
+        <v>357</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>364</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H12" t="s">
+        <v>383</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13" t="s">
+        <v>358</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>365</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H13" t="s">
+        <v>384</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14" t="s">
+        <v>359</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>366</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H14" t="s">
+        <v>385</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B15" t="s">
+        <v>360</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>366</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H15" t="s">
+        <v>386</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D18" t="s">
+        <v>378</v>
+      </c>
+      <c r="E18" t="s">
+        <v>400</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J18" t="s">
+        <v>362</v>
+      </c>
+      <c r="K18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B19" t="s">
+        <v>373</v>
+      </c>
+      <c r="D19" t="s">
+        <v>379</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H19" t="s">
+        <v>387</v>
+      </c>
+      <c r="J19" t="s">
+        <v>390</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B20" t="s">
+        <v>374</v>
+      </c>
+      <c r="D20" t="s">
+        <v>379</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H20" t="s">
+        <v>398</v>
+      </c>
+      <c r="J20" t="s">
+        <v>391</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B21" t="s">
+        <v>375</v>
+      </c>
+      <c r="D21" t="s">
+        <v>379</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H21" t="s">
+        <v>388</v>
+      </c>
+      <c r="J21" t="s">
+        <v>391</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B22" t="s">
+        <v>376</v>
+      </c>
+      <c r="D22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H22" t="s">
+        <v>389</v>
+      </c>
+      <c r="J22" t="s">
+        <v>392</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B23" t="s">
+        <v>377</v>
+      </c>
+      <c r="D23" t="s">
+        <v>379</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H23" t="s">
+        <v>399</v>
+      </c>
+      <c r="J23" t="s">
+        <v>391</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ProjectAnalysis/AssembleBOMs.xlsx
+++ b/ProjectAnalysis/AssembleBOMs.xlsx
@@ -1320,12 +1320,92 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1335,19 +1415,49 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1365,6 +1475,135 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="箭头: 右 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C7A35E-0FF0-4DE8-BDEF-7D77455F6E2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="1819275"/>
+          <a:ext cx="1447800" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="箭头: 圆角右 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C7AF5D-95BB-4791-AC74-0690EC893390}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="495300"/>
+          <a:ext cx="457200" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6701,10 +6940,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A2:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6712,348 +6951,407 @@
     <col min="8" max="8" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="G2" s="3" t="s">
         <v>367</v>
       </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="7"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="7"/>
+      <c r="G4" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="G4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="7"/>
+      <c r="G5" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="G5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="7"/>
+      <c r="G6" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="G6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G7" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="G7" s="14" t="s">
         <v>371</v>
       </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="G9" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="G9" s="3" t="s">
         <v>380</v>
       </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="7" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>100</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="7" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>100</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>2</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="7" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>100</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>3</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="7" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>100</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>1</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="7" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="10">
         <v>100</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="10">
         <v>5</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="11" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="G17" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="G17" s="3" t="s">
         <v>352</v>
       </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="J18" t="s">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="7" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="E19" s="7"/>
+      <c r="G19" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="J19" t="s">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="E20" s="7"/>
+      <c r="G20" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="J20" t="s">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="E21" s="7"/>
+      <c r="G21" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="J21" t="s">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="E22" s="7"/>
+      <c r="G22" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="J22" t="s">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="E23" s="11"/>
+      <c r="G23" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="J23" t="s">
+      <c r="I23" s="10"/>
+      <c r="J23" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="11">
         <v>100</v>
       </c>
     </row>
@@ -7061,5 +7359,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>